--- a/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251012_201118.xlsx
+++ b/Tratamento/src/Dados_limpos/novos/limpo_cobasi_20251012_201118.xlsx
@@ -5161,7 +5161,7 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5231,7 +5231,7 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5511,7 +5511,7 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>spot</t>
+          <t>topspot</t>
         </is>
       </c>
     </row>
